--- a/iselUssSyncV2/OutputWSL/20220428_1347_D50L474W90Q35.0U0.40H111G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1347_D50L474W90Q35.0U0.40H111G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>111.50094861660082</v>
+        <v>111.50187938362176</v>
       </c>
       <c r="F2" s="0">
-        <v>111.74379446640313</v>
+        <v>111.74472523342415</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>112.26448412698413</v>
+        <v>112.26675933525765</v>
       </c>
       <c r="F3" s="0">
-        <v>113.63579365079366</v>
+        <v>113.6380688590671</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>111.54328063241105</v>
+        <v>111.5460315660508</v>
       </c>
       <c r="F4" s="0">
-        <v>115.35537549407117</v>
+        <v>115.35812642771087</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>111.11175298804785</v>
+        <v>111.11455907825173</v>
       </c>
       <c r="F5" s="0">
-        <v>115.94358565737056</v>
+        <v>115.94639174757449</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>110.07809523809524</v>
+        <v>110.08094959029292</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>108.19701195219119</v>
+        <v>108.19990767181203</v>
       </c>
       <c r="F7" s="0">
-        <v>115.25143426294818</v>
+        <v>115.25432998256903</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>105.12440476190481</v>
+        <v>105.12733495437818</v>
       </c>
       <c r="F8" s="0">
-        <v>111.09047619047615</v>
+        <v>111.09340638294958</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +260,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>103.48420634920633</v>
+        <v>103.48714840034106</v>
       </c>
       <c r="F9" s="0">
-        <v>106.61888888888892</v>
+        <v>106.62183094002363</v>
       </c>
     </row>
     <row r="10">
@@ -280,10 +280,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>101.81357142857142</v>
+        <v>101.8165242352362</v>
       </c>
       <c r="F10" s="0">
-        <v>99.087619047619071</v>
+        <v>99.090571854283766</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +300,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>100.0619841269841</v>
+        <v>100.0649465860476</v>
       </c>
       <c r="F11" s="0">
-        <v>92.93511904761904</v>
+        <v>92.938081506682551</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +320,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>99.440912698412703</v>
+        <v>99.443879570001343</v>
       </c>
       <c r="F12" s="0">
-        <v>90.09400793650795</v>
+        <v>90.096974808096533</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +340,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>98.406785714285746</v>
+        <v>98.409756722616663</v>
       </c>
       <c r="F13" s="0">
-        <v>87.906349206349219</v>
+        <v>87.909320214680179</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +360,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>97.904285714285706</v>
+        <v>97.907260583576161</v>
       </c>
       <c r="F14" s="0">
-        <v>89.457023809523804</v>
+        <v>89.459998678814244</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +380,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>97.760436507936461</v>
+        <v>97.763414962403644</v>
       </c>
       <c r="F15" s="0">
-        <v>87.358373015873028</v>
+        <v>87.361351470340125</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +400,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>97.458373015873022</v>
+        <v>97.461357813345003</v>
       </c>
       <c r="F16" s="0">
-        <v>87.922698412698395</v>
+        <v>87.925683210170419</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>98.272301587301584</v>
+        <v>98.275291624647181</v>
       </c>
       <c r="F17" s="0">
-        <v>95.355912698412695</v>
+        <v>95.358902735758292</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +440,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>99.32800796812748</v>
+        <v>99.331002142215368</v>
       </c>
       <c r="F18" s="0">
-        <v>101.04992031872509</v>
+        <v>101.05291449281299</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +460,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>105.86864541832671</v>
+        <v>105.87164455650536</v>
       </c>
       <c r="F19" s="0">
-        <v>112.41183266932269</v>
+        <v>112.41483180750143</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>109.37215139442229</v>
+        <v>109.37515053260098</v>
       </c>
       <c r="F20" s="0">
-        <v>102.92310756972113</v>
+        <v>102.92610670789975</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +500,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>99.943027888446224</v>
+        <v>99.946020132054343</v>
       </c>
       <c r="F21" s="0">
-        <v>103.1788047808765</v>
+        <v>103.18179702448465</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +520,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>98.474603174603189</v>
+        <v>98.477581629070286</v>
       </c>
       <c r="F22" s="0">
-        <v>110.44873015873014</v>
+        <v>110.4517086131973</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>111.03083333333335</v>
+        <v>111.03379110408886</v>
       </c>
       <c r="F23" s="0">
-        <v>106.52773809523811</v>
+        <v>106.53069586599365</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +560,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>98.11278884462152</v>
+        <v>98.115684564242287</v>
       </c>
       <c r="F24" s="0">
-        <v>107.68772908366535</v>
+        <v>107.69062480328614</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +580,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>110.63948207171316</v>
+        <v>110.64228816191709</v>
       </c>
       <c r="F25" s="0">
-        <v>108.49912350597609</v>
+        <v>108.50192959618006</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +600,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>101.99346613545815</v>
+        <v>101.99615501796319</v>
       </c>
       <c r="F26" s="0">
-        <v>106.87577689243028</v>
+        <v>106.87846577493532</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>104.11235059760955</v>
+        <v>104.11489469413354</v>
       </c>
       <c r="F27" s="0">
-        <v>106.91749003984064</v>
+        <v>106.92003413636463</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +640,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>106.51374501992032</v>
+        <v>106.51611675218116</v>
       </c>
       <c r="F28" s="0">
-        <v>106.62888446215139</v>
+        <v>106.63125619441227</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +660,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>104.41765873015875</v>
+        <v>104.41983051987434</v>
       </c>
       <c r="F29" s="0">
-        <v>106.26142857142858</v>
+        <v>106.26360036114419</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +680,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>100.63257936507937</v>
+        <v>100.63426853485817</v>
       </c>
       <c r="F30" s="0">
-        <v>106.62988095238094</v>
+        <v>106.63157012215974</v>
       </c>
     </row>
   </sheetData>
